--- a/tabular/core/lenti-extended-reference-data.xlsx
+++ b/tabular/core/lenti-extended-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E50B4A-41AF-734C-A0E1-33EBCF8EB93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D2B31-26DC-FF44-807B-FF20BB94AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14600" yWindow="2820" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="644">
   <si>
     <t>Accession</t>
   </si>
@@ -1726,27 +1726,12 @@
     <t>country</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>Human immunodeficiency virus 1</t>
   </si>
   <si>
-    <t>Small ruminant lentivirus genotype A</t>
-  </si>
-  <si>
-    <t>NC_001452</t>
-  </si>
-  <si>
     <t>subtype</t>
   </si>
   <si>
-    <t xml:space="preserve">HIV-1 </t>
-  </si>
-  <si>
     <t>Bovine</t>
   </si>
   <si>
@@ -1765,18 +1750,9 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>HIV-1M</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>NK</t>
   </si>
   <si>
@@ -1985,9 +1961,6 @@
   </si>
   <si>
     <t>Ovine-Caprine</t>
-  </si>
-  <si>
-    <t>X05291</t>
   </si>
 </sst>
 </file>
@@ -2603,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2633,7 +2606,7 @@
         <v>446</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>452</v>
@@ -2642,10 +2615,10 @@
         <v>450</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>453</v>
@@ -2663,1287 +2636,1287 @@
         <v>564</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>321</v>
+      <c r="A2" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>492</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>431</v>
+      <c r="G2" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>494</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>581</v>
+        <v>574</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>575</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="A3" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>582</v>
+      <c r="I3" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>569</v>
+        <v>615</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>339</v>
+        <v>605</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>443</v>
+        <v>604</v>
       </c>
       <c r="G4" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>577</v>
+        <v>639</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>444</v>
+        <v>597</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>341</v>
+        <v>606</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>8</v>
+        <v>604</v>
       </c>
       <c r="G5" s="27">
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>612</v>
+        <v>47</v>
       </c>
       <c r="G6" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>605</v>
+        <v>444</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>383</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>612</v>
+        <v>8</v>
       </c>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="D11" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="C15" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="J15" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>473</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>582</v>
+      <c r="K15" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>571</v>
+      <c r="A16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>531</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="33">
-        <v>1</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>580</v>
+      <c r="F16" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>574</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>529</v>
+        <v>343</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>529</v>
+        <v>343</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>403</v>
+        <v>572</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>405</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>66</v>
+        <v>574</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>195</v>
+        <v>616</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>399</v>
+        <v>572</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>312</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>495</v>
+        <v>625</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>407</v>
+        <v>631</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>406</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>354</v>
+        <v>627</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>354</v>
+        <v>627</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>645</v>
+        <v>572</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>634</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>405</v>
+        <v>633</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>538</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>624</v>
+        <v>191</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>555</v>
+        <v>495</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>375</v>
+        <v>630</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>375</v>
+        <v>630</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>488</v>
+        <v>572</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>498</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>525</v>
+        <v>181</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>577</v>
+      <c r="F24" s="37" t="s">
+        <v>376</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>639</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>406</v>
+        <v>572</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>312</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>391</v>
+      <c r="F25" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>637</v>
+        <v>176</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>577</v>
+      <c r="F26" s="37" t="s">
+        <v>373</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>394</v>
+        <v>572</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>312</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>625</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>346</v>
+        <v>173</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>344</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>538</v>
+      <c r="F27" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>312</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>495</v>
+        <v>349</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>592</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="F28" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>396</v>
+      <c r="F28" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>466</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>344</v>
+        <v>159</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>350</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>312</v>
+        <v>574</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>466</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>163</v>
+        <v>641</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>541</v>
+        <v>350</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>541</v>
+        <v>350</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>176</v>
+        <v>642</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>344</v>
@@ -3958,10 +3931,10 @@
         <v>373</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>488</v>
@@ -3970,329 +3943,65 @@
         <v>312</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>344</v>
+        <v>149</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>350</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>464</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>372</v>
+        <v>574</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>312</v>
+        <v>572</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>466</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N33" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N34" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N35" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>650</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>600</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K37" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M37" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
-        <v>652</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="K38" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="L38" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="M38" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="N38" s="37" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
-    <sortCondition ref="E2:E16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
+    <sortCondition ref="E2:E11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11605,7 +11314,7 @@
         <v>175</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>344</v>
@@ -11620,10 +11329,10 @@
         <v>372</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>488</v>
@@ -11646,10 +11355,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>344</v>
@@ -11664,10 +11373,10 @@
         <v>373</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>488</v>
@@ -11676,7 +11385,7 @@
         <v>312</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="L2" s="37">
         <v>2005</v>
@@ -11690,10 +11399,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>344</v>
@@ -11708,10 +11417,10 @@
         <v>376</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>488</v>
@@ -11720,7 +11429,7 @@
         <v>312</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="L3" s="37">
         <v>2009</v>
@@ -11729,15 +11438,15 @@
         <v>10</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>350</v>
@@ -11752,13 +11461,13 @@
         <v>370</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>466</v>
@@ -11776,10 +11485,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>592</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>600</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>350</v>
@@ -11794,19 +11503,19 @@
         <v>372</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
@@ -11818,10 +11527,10 @@
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>350</v>
@@ -11833,22 +11542,22 @@
         <v>464</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>466</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37" t="s">
@@ -11863,7 +11572,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>541</v>
@@ -11878,19 +11587,19 @@
         <v>373</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>393</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="L7" s="37">
         <v>2012</v>
@@ -11907,7 +11616,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>541</v>
@@ -11922,19 +11631,19 @@
         <v>376</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>393</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L8" s="37">
         <v>2013</v>

--- a/tabular/core/lenti-extended-reference-data.xlsx
+++ b/tabular/core/lenti-extended-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D2B31-26DC-FF44-807B-FF20BB94AA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28385A25-CD37-334F-A9F2-F648018A428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14600" yWindow="2820" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/core/lenti-extended-reference-data.xlsx
+++ b/tabular/core/lenti-extended-reference-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28385A25-CD37-334F-A9F2-F648018A428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F201313F-F364-FD4E-910C-5815C8EAD2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="2820" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="8540" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="622">
   <si>
     <t>Accession</t>
   </si>
@@ -1750,9 +1750,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>NK</t>
   </si>
   <si>
@@ -1813,18 +1810,6 @@
     <t>Simian immunodeficiency virus gor</t>
   </si>
   <si>
-    <t>NC_001463</t>
-  </si>
-  <si>
-    <t>Small ruminant lentivirus genotype B</t>
-  </si>
-  <si>
-    <t>Goat</t>
-  </si>
-  <si>
-    <t>Capra hircus</t>
-  </si>
-  <si>
     <t>Asian</t>
   </si>
   <si>
@@ -1834,51 +1819,6 @@
     <t>JX480632</t>
   </si>
   <si>
-    <t>EU293537</t>
-  </si>
-  <si>
-    <t>AF322109</t>
-  </si>
-  <si>
-    <t>JF502416</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SRLV-E2</t>
-  </si>
-  <si>
-    <t>SRLV-E1</t>
-  </si>
-  <si>
-    <t>SRLV-C</t>
-  </si>
-  <si>
-    <t>SRLV-B3</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Small ruminant lentivirus genotype E2</t>
-  </si>
-  <si>
-    <t>Small ruminant lentivirus genotype E1</t>
-  </si>
-  <si>
-    <t>Small ruminant lentivirus genotype C</t>
-  </si>
-  <si>
-    <t>Small ruminant lentivirus genotype B3</t>
-  </si>
-  <si>
-    <t>GQ381130</t>
-  </si>
-  <si>
     <t>MK686247</t>
   </si>
   <si>
@@ -1948,9 +1888,6 @@
     <t>Collared mangabey</t>
   </si>
   <si>
-    <t>Seui</t>
-  </si>
-  <si>
     <t>Feline immunodeficiency virus isolate SR631</t>
   </si>
   <si>
@@ -1958,9 +1895,6 @@
   </si>
   <si>
     <t>AY618998</t>
-  </si>
-  <si>
-    <t>Ovine-Caprine</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2195,9 +2129,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2576,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2596,1412 +2527,1192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="C23" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H23" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I23" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27" t="s">
+      <c r="H24" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M3" s="25" t="s">
+      <c r="I24" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K24" s="36" t="s">
         <v>573</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="G4" s="27">
-        <v>2</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>601</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="G5" s="27">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27" t="s">
+      <c r="L24" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27" t="s">
+      <c r="H25" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="27">
-        <v>3</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="I25" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="H9" s="33" t="s">
+      <c r="I26" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>574</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="H27" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>618</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>619</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>399</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>637</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>625</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>628</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>538</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N25" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N26" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N27" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J28" s="37" t="s">
+      <c r="I27" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J27" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="K28" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M28" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N28" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N29" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>641</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N30" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>642</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L31" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N32" s="37" t="s">
-        <v>574</v>
+      <c r="K27" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M11">
-    <sortCondition ref="E2:E11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
+    <sortCondition ref="E2:E6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11310,348 +11021,348 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="37">
+      <c r="L1" s="36">
         <v>1995</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="37">
+      <c r="N1" s="36">
         <v>9734396</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="L2" s="36">
+        <v>2005</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="36">
+        <v>26699702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F3" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L3" s="36">
+        <v>2009</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="36">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="36">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="36">
+        <v>17494082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G7" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H7" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="L2" s="37">
-        <v>2005</v>
-      </c>
-      <c r="M2" s="37" t="s">
+      <c r="I7" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="L7" s="36">
+        <v>2012</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="37">
-        <v>26699702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>580</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="N7" s="36">
+        <v>25733890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="L3" s="37">
-        <v>2009</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37" t="s">
+      <c r="I8" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="L8" s="36">
+        <v>2013</v>
+      </c>
+      <c r="M8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="37">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="37">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>586</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>588</v>
-      </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="37">
-        <v>17494082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>572</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="L7" s="37">
-        <v>2012</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="37">
-        <v>25733890</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="L8" s="37">
-        <v>2013</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>25733890</v>
       </c>
     </row>

--- a/tabular/core/lenti-extended-reference-data.xlsx
+++ b/tabular/core/lenti-extended-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F201313F-F364-FD4E-910C-5815C8EAD2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D6B04-7F7A-C844-A40E-1FD32FE230A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="8540" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="3980" windowWidth="36480" windowHeight="23560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="618">
   <si>
     <t>Accession</t>
   </si>
@@ -1738,9 +1738,6 @@
     <t>Equine</t>
   </si>
   <si>
-    <t>Feline</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -1756,12 +1753,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">FIVpco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIVoma </t>
-  </si>
-  <si>
     <t>KU168292</t>
   </si>
   <si>
@@ -1886,9 +1877,6 @@
   </si>
   <si>
     <t>Collared mangabey</t>
-  </si>
-  <si>
-    <t>Feline immunodeficiency virus isolate SR631</t>
   </si>
   <si>
     <t>JN091691</t>
@@ -2077,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2130,15 +2118,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2507,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2537,7 +2516,7 @@
         <v>446</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>452</v>
@@ -2549,7 +2528,7 @@
         <v>566</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>453</v>
@@ -2567,1152 +2546,1064 @@
         <v>564</v>
       </c>
       <c r="N1" s="27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="F2" s="37" t="s">
+      <c r="G4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="L4" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="C5" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="C15" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="K15" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="L15" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="M15" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="N15" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H5" s="29" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="L16" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="M16" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="N16" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="32" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F17" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="L17" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="M17" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>618</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="N17" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F18" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G18" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K18" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="L18" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="M18" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F19" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="L19" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="M19" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="N19" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F20" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="L20" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="M20" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="N20" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
         <v>617</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>602</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="E11" s="32" t="s">
+      <c r="B24" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F24" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="L24" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="M24" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>395</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="N24" s="33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F25" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G25" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K25" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="L25" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="37" t="s">
+      <c r="M25" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="N25" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="H13" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>611</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>607</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>607</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>610</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>610</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>396</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>565</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>612</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N23" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N24" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>573</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
-    <sortCondition ref="E2:E6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M4">
+    <sortCondition ref="E2:E4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11021,348 +10912,348 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I1" s="32" t="s">
+      <c r="G1" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="36">
+      <c r="L1" s="33">
         <v>1995</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="36">
+      <c r="N1" s="33">
         <v>9734396</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="L2" s="33">
+        <v>2005</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="33">
+        <v>26699702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="L3" s="33">
+        <v>2009</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F4" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="33">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="33">
+        <v>22505456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="33">
+        <v>17494082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="L2" s="36">
-        <v>2005</v>
-      </c>
-      <c r="M2" s="36" t="s">
+      <c r="G7" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="L7" s="33">
+        <v>2012</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="36">
-        <v>26699702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="N7" s="33">
+        <v>25733890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F8" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="L3" s="36">
-        <v>2009</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36" t="s">
+      <c r="G8" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="L8" s="33">
+        <v>2013</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="36">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="36">
-        <v>22505456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="36">
-        <v>17494082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>612</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="L7" s="36">
-        <v>2012</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="36">
-        <v>25733890</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>612</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="L8" s="36">
-        <v>2013</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="36">
+      <c r="N8" s="33">
         <v>25733890</v>
       </c>
     </row>
